--- a/userEdition/featuresCatalog_output.xlsx
+++ b/userEdition/featuresCatalog_output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t xml:space="preserve">airTraffic.airportDepartures</t>
   </si>
@@ -68,13 +68,13 @@
     <t xml:space="preserve">music.valence</t>
   </si>
   <si>
-    <t xml:space="preserve">OECD.OECD_BCI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OECD.OECD_CCI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OECD.OECD_CLI</t>
+    <t xml:space="preserve">OECD.BCI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OECD.CCI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OECD.CLI</t>
   </si>
   <si>
     <t xml:space="preserve">searchesGoogle.cinema</t>
@@ -113,79 +113,40 @@
     <t xml:space="preserve">stocks.^FTSE</t>
   </si>
   <si>
-    <t xml:space="preserve">stocks.^FTSE_vol</t>
-  </si>
-  <si>
     <t xml:space="preserve">stocks.^GSPC</t>
   </si>
   <si>
-    <t xml:space="preserve">stocks.^GSPC_vol</t>
-  </si>
-  <si>
     <t xml:space="preserve">stocks.^IBEX</t>
   </si>
   <si>
-    <t xml:space="preserve">stocks.^IBEX_vol</t>
-  </si>
-  <si>
     <t xml:space="preserve">stocks.^VIX</t>
   </si>
   <si>
-    <t xml:space="preserve">stocks.^VIX_vol</t>
-  </si>
-  <si>
     <t xml:space="preserve">stocks.AAIC</t>
   </si>
   <si>
-    <t xml:space="preserve">stocks.AAIC_vol</t>
-  </si>
-  <si>
     <t xml:space="preserve">stocks.AAN</t>
   </si>
   <si>
-    <t xml:space="preserve">stocks.AAN_vol</t>
-  </si>
-  <si>
     <t xml:space="preserve">stocks.AAPL</t>
   </si>
   <si>
-    <t xml:space="preserve">stocks.AAPL_vol</t>
-  </si>
-  <si>
     <t xml:space="preserve">stocks.AMZN</t>
   </si>
   <si>
-    <t xml:space="preserve">stocks.AMZN_vol</t>
-  </si>
-  <si>
     <t xml:space="preserve">stocks.DAX</t>
   </si>
   <si>
-    <t xml:space="preserve">stocks.DAX_vol</t>
-  </si>
-  <si>
     <t xml:space="preserve">stocks.EURUSD=X</t>
   </si>
   <si>
-    <t xml:space="preserve">stocks.EURUSD=X_vol</t>
-  </si>
-  <si>
     <t xml:space="preserve">stocks.GBPUSD=X</t>
   </si>
   <si>
-    <t xml:space="preserve">stocks.GBPUSD=X_vol</t>
-  </si>
-  <si>
     <t xml:space="preserve">stocks.MSFT</t>
   </si>
   <si>
-    <t xml:space="preserve">stocks.MSFT_vol</t>
-  </si>
-  <si>
     <t xml:space="preserve">stocks.NFLX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stocks.NFLX_vol</t>
   </si>
 </sst>
 </file>
@@ -742,71 +703,6 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/userEdition/featuresCatalog_output.xlsx
+++ b/userEdition/featuresCatalog_output.xlsx
@@ -12,10 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
-  <si>
-    <t xml:space="preserve">airTraffic.airportDepartures</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">airTraffic.worldFlights</t>
   </si>
@@ -96,18 +93,6 @@
   </si>
   <si>
     <t xml:space="preserve">twitterSentiment.miscelaneous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weather.PRCP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weather.TAVG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weather.TMAX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weather.TMIN</t>
   </si>
   <si>
     <t xml:space="preserve">stocks.^FTSE</t>
@@ -678,31 +663,6 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/userEdition/featuresCatalog_output.xlsx
+++ b/userEdition/featuresCatalog_output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t xml:space="preserve">airTraffic.worldFlights</t>
   </si>
@@ -74,64 +74,145 @@
     <t xml:space="preserve">OECD.CLI</t>
   </si>
   <si>
-    <t xml:space="preserve">searchesGoogle.cinema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">searchesGoogle.football</t>
-  </si>
-  <si>
-    <t xml:space="preserve">searchesGoogle.global_politics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">searchesGoogle.spanish_banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">twitterSentiment.football</t>
-  </si>
-  <si>
-    <t xml:space="preserve">twitterSentiment.global politics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">twitterSentiment.miscelaneous</t>
+    <t xml:space="preserve">searchesGoogle.bitcoin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">searchesGoogle.brexit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">searchesGoogle.copper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">searchesGoogle.crude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">searchesGoogle.forex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">searchesGoogle.gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">searchesGoogle.indexes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">searchesGoogle.raw_materials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">searchesGoogle.spain stocks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">searchesGoogle.stocks_market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twitterSentiment.bolzonaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twitterSentiment.china</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twitterSentiment.putin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twitterSentiment.USAgov</t>
   </si>
   <si>
     <t xml:space="preserve">stocks.^FTSE</t>
   </si>
   <si>
-    <t xml:space="preserve">stocks.^GSPC</t>
-  </si>
-  <si>
     <t xml:space="preserve">stocks.^IBEX</t>
   </si>
   <si>
+    <t xml:space="preserve">stocks.^N225</t>
+  </si>
+  <si>
     <t xml:space="preserve">stocks.^VIX</t>
   </si>
   <si>
-    <t xml:space="preserve">stocks.AAIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stocks.AAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stocks.AAPL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stocks.AMZN</t>
+    <t xml:space="preserve">stocks.BBVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stocks.CL=F</t>
   </si>
   <si>
     <t xml:space="preserve">stocks.DAX</t>
   </si>
   <si>
-    <t xml:space="preserve">stocks.EURUSD=X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stocks.GBPUSD=X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stocks.MSFT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stocks.NFLX</t>
+    <t xml:space="preserve">stocks.EURCAD=X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stocks.EURGBP=X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stocks.GC=F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stocks.HG=F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stocks.JPYCAD=X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stocks.JPYEUR=X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stocks.JPYGBP=X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stocks.JPYNZD=X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stocks.NG=F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stocks.SAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stocks.SI=F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stocks.TEF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stocks.USDARS=X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stocks.USDAUD=X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stocks.USDBRL=X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stocks.USDCAD=X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stocks.USDCHF=X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stocks.USDCLP=X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stocks.USDCOP=X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stocks.USDDKK=X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stocks.USDEUR=X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stocks.USDGBP=X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stocks.USDJPY=X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stocks.USDMXN=X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stocks.USDNZD=X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stocks.USDPEN=X</t>
   </si>
 </sst>
 </file>
@@ -663,6 +744,141 @@
         <v>39</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
